--- a/Volume values.xlsx
+++ b/Volume values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Balibrea\Documents\NetBeansProjects\HappyButtons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB3CBB8-2AD9-47C2-AF65-344BF5A45FCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8B1F32-0EB2-444B-B5F9-9D840EEC1A8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2AD5A7CF-90FD-424C-BEB4-38B22C298545}"/>
   </bookViews>
@@ -157,14 +157,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,80 +483,80 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="J1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -583,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="5">
-        <v>-30.5</v>
+        <v>-35</v>
       </c>
       <c r="J3" s="1">
         <v>100</v>
@@ -607,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="Q3" s="5">
-        <v>-30.5</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="5">
-        <v>-36</v>
+        <v>-40</v>
       </c>
       <c r="J4" s="1">
         <v>99</v>
@@ -657,7 +657,7 @@
         <v>8</v>
       </c>
       <c r="Q4" s="5">
-        <v>-36</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="5">
-        <v>-41.5</v>
+        <v>-45</v>
       </c>
       <c r="J5" s="1">
         <v>98</v>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="Q5" s="5">
-        <v>-41.5</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="H6" s="5">
-        <v>-47</v>
+        <v>-50</v>
       </c>
       <c r="J6" s="1">
         <v>97</v>
@@ -757,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="Q6" s="5">
-        <v>-47</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -783,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="5">
-        <v>-52.5</v>
+        <v>-55</v>
       </c>
       <c r="J7" s="1">
         <v>96</v>
@@ -807,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5">
-        <v>-52.5</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="5">
-        <v>-58</v>
+        <v>-60</v>
       </c>
       <c r="J8" s="1">
         <v>95</v>
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="Q8" s="5">
-        <v>-58</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="5">
-        <v>-63.5</v>
+        <v>-65</v>
       </c>
       <c r="J9" s="1">
         <v>94</v>
@@ -907,7 +907,7 @@
         <v>3</v>
       </c>
       <c r="Q9" s="5">
-        <v>-63.5</v>
+        <v>-65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -933,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="5">
-        <v>-69</v>
+        <v>-70</v>
       </c>
       <c r="J10" s="1">
         <v>93</v>
@@ -957,7 +957,7 @@
         <v>2</v>
       </c>
       <c r="Q10" s="5">
-        <v>-69</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="5">
-        <v>-74.5</v>
+        <v>-75</v>
       </c>
       <c r="J11" s="1">
         <v>92</v>
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="5">
-        <v>-74.5</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1079,11 +1079,11 @@
       <c r="F13" s="3">
         <v>-26.8</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="5">
-        <v>-5.5</v>
+        <v>-5</v>
       </c>
       <c r="J13" s="1">
         <v>90</v>
@@ -1103,11 +1103,11 @@
       <c r="O13" s="3">
         <v>-22.26</v>
       </c>
-      <c r="P13" s="8" t="s">
+      <c r="P13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="Q13" s="5">
-        <v>-5.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
       <c r="D18" s="2">
         <v>-14.76</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="3">
@@ -1293,7 +1293,7 @@
       <c r="M18" s="2">
         <v>-11.4</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="O18" s="3">
@@ -1541,7 +1541,7 @@
       <c r="B28" s="1">
         <v>-4.5</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D28" s="2">
@@ -1553,7 +1553,7 @@
       <c r="K28" s="1">
         <v>0.50000000000000999</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="7" t="s">
         <v>4</v>
       </c>
       <c r="M28" s="2">
@@ -1911,13 +1911,13 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="1">
         <v>-0.18</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K54" s="1">
